--- a/Excel/LSWI_zones_hum_buf.xlsx
+++ b/Excel/LSWI_zones_hum_buf.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6207" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6207" uniqueCount="88">
   <si>
     <t>wetland</t>
   </si>
@@ -300,60 +300,6 @@
   </si>
   <si>
     <t>2011_2021</t>
-  </si>
-  <si>
-    <t>1999_2011</t>
-  </si>
-  <si>
-    <t>2011_2022</t>
-  </si>
-  <si>
-    <t>1999_2012</t>
-  </si>
-  <si>
-    <t>2011_2023</t>
-  </si>
-  <si>
-    <t>1999_2013</t>
-  </si>
-  <si>
-    <t>2011_2024</t>
-  </si>
-  <si>
-    <t>1999_2014</t>
-  </si>
-  <si>
-    <t>2011_2025</t>
-  </si>
-  <si>
-    <t>1999_2015</t>
-  </si>
-  <si>
-    <t>2011_2026</t>
-  </si>
-  <si>
-    <t>1999_2016</t>
-  </si>
-  <si>
-    <t>2011_2027</t>
-  </si>
-  <si>
-    <t>1999_2017</t>
-  </si>
-  <si>
-    <t>2011_2028</t>
-  </si>
-  <si>
-    <t>1999_2018</t>
-  </si>
-  <si>
-    <t>2011_2029</t>
-  </si>
-  <si>
-    <t>1999_2019</t>
-  </si>
-  <si>
-    <t>2011_2030</t>
   </si>
   <si>
     <t>ndvi</t>
@@ -5797,7 +5743,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
         <v>23</v>
@@ -36555,7 +36501,7 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36601,7 +36547,7 @@
         <v>82</v>
       </c>
       <c r="N1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -36903,7 +36849,7 @@
         <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M8">
         <v>5.9435603837133442E-2</v>
@@ -36947,7 +36893,7 @@
         <v>54</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M9">
         <v>6.9642314837526836E-2</v>
@@ -36991,7 +36937,7 @@
         <v>62</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M10">
         <v>2.5071944804283524E-2</v>
@@ -37035,7 +36981,7 @@
         <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M11">
         <v>3.1126983130033814E-2</v>
@@ -37079,7 +37025,7 @@
         <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M12">
         <v>6.0217234087866977E-3</v>
@@ -37123,7 +37069,7 @@
         <v>46</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M13">
         <v>8.1082019645145054E-3</v>
@@ -37167,7 +37113,7 @@
         <v>52</v>
       </c>
       <c r="L14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M14">
         <v>2.5665645987964975E-2</v>
@@ -37211,7 +37157,7 @@
         <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M15">
         <v>2.769231736851149E-2</v>
@@ -37255,7 +37201,7 @@
         <v>38</v>
       </c>
       <c r="L16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M16">
         <v>1.4938913791498157E-2</v>
@@ -37299,7 +37245,7 @@
         <v>38</v>
       </c>
       <c r="L17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M17">
         <v>2.7099704482693155E-2</v>
@@ -37343,7 +37289,7 @@
         <v>36</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M18">
         <v>-9.904844182702017E-4</v>
@@ -37387,7 +37333,7 @@
         <v>36</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M19">
         <v>7.9770028243829477E-3</v>
@@ -37431,7 +37377,7 @@
         <v>48</v>
       </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M20">
         <v>2.5642564824018582E-2</v>
@@ -37475,7 +37421,7 @@
         <v>48</v>
       </c>
       <c r="L21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M21">
         <v>2.5051966761243848E-2</v>
@@ -37519,7 +37465,7 @@
         <v>56</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M22">
         <v>9.7797661960327535E-4</v>
@@ -37563,7 +37509,7 @@
         <v>56</v>
       </c>
       <c r="L23" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M23">
         <v>1.6207627629022853E-2</v>
@@ -37607,7 +37553,7 @@
         <v>34</v>
       </c>
       <c r="L24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M24">
         <v>-7.08161502297698E-3</v>
@@ -37651,7 +37597,7 @@
         <v>34</v>
       </c>
       <c r="L25" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M25">
         <v>-4.8932573492571517E-3</v>
@@ -37695,7 +37641,7 @@
         <v>60</v>
       </c>
       <c r="L26" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M26">
         <v>-1.2461600626775128E-2</v>
@@ -37739,7 +37685,7 @@
         <v>60</v>
       </c>
       <c r="L27" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M27">
         <v>4.5052253859944906E-3</v>
@@ -37783,7 +37729,7 @@
         <v>40</v>
       </c>
       <c r="L28" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M28">
         <v>-2.0039932457807845E-3</v>
@@ -37827,7 +37773,7 @@
         <v>40</v>
       </c>
       <c r="L29" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M29">
         <v>3.9958162511490114E-3</v>
@@ -37871,7 +37817,7 @@
         <v>58</v>
       </c>
       <c r="L30" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M30">
         <v>4.1730567105887573E-2</v>
@@ -37915,7 +37861,7 @@
         <v>58</v>
       </c>
       <c r="L31" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M31">
         <v>5.727322563454116E-2</v>
@@ -37959,7 +37905,7 @@
         <v>44</v>
       </c>
       <c r="L32" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M32">
         <v>8.7090621548857813E-2</v>
@@ -38003,7 +37949,7 @@
         <v>44</v>
       </c>
       <c r="L33" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M33">
         <v>9.4676978535346304E-2</v>
@@ -38047,7 +37993,7 @@
         <v>42</v>
       </c>
       <c r="L34" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M34">
         <v>4.2469476770690941E-2</v>
@@ -38091,7 +38037,7 @@
         <v>42</v>
       </c>
       <c r="L35" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M35">
         <v>4.141994670177946E-2</v>
@@ -38135,7 +38081,7 @@
         <v>50</v>
       </c>
       <c r="L36" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M36">
         <v>2.132641499793067E-3</v>
@@ -38179,7 +38125,7 @@
         <v>50</v>
       </c>
       <c r="L37" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M37">
         <v>-1.7166748266250157E-4</v>
@@ -38223,7 +38169,7 @@
         <v>54</v>
       </c>
       <c r="L38" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M38">
         <v>4.9487794229461674E-2</v>
@@ -38267,7 +38213,7 @@
         <v>54</v>
       </c>
       <c r="L39" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="M39">
         <v>4.7710178476332167E-2</v>
@@ -38311,7 +38257,7 @@
         <v>62</v>
       </c>
       <c r="L40" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M40">
         <v>5.5795264453984035E-2</v>
@@ -38355,7 +38301,7 @@
         <v>62</v>
       </c>
       <c r="L41" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="M41">
         <v>6.7301898106033195E-2</v>
@@ -38399,7 +38345,7 @@
         <v>46</v>
       </c>
       <c r="L42" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M42">
         <v>5.863461614124655E-2</v>
@@ -38443,7 +38389,7 @@
         <v>46</v>
       </c>
       <c r="L43" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="M43">
         <v>3.6829164110967413E-2</v>
@@ -38487,7 +38433,7 @@
         <v>52</v>
       </c>
       <c r="L44" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="M44">
         <v>3.8684908059838659E-2</v>
@@ -38531,7 +38477,7 @@
         <v>52</v>
       </c>
       <c r="L45" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="M45">
         <v>3.5376219552520544E-2</v>
@@ -38575,7 +38521,7 @@
         <v>38</v>
       </c>
       <c r="L46" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="M46">
         <v>3.2207712164394685E-2</v>
@@ -38619,7 +38565,7 @@
         <v>38</v>
       </c>
       <c r="L47" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="M47">
         <v>3.5757958146344242E-2</v>
@@ -38663,7 +38609,7 @@
         <v>36</v>
       </c>
       <c r="L48" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="M48">
         <v>8.2414019133299279E-2</v>
@@ -38707,7 +38653,7 @@
         <v>36</v>
       </c>
       <c r="L49" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="M49">
         <v>7.5054230434128275E-2</v>
@@ -38751,7 +38697,7 @@
         <v>48</v>
       </c>
       <c r="L50" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="M50">
         <v>5.0986036914478727E-2</v>
@@ -38795,7 +38741,7 @@
         <v>48</v>
       </c>
       <c r="L51" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="M51">
         <v>6.0172699135778385E-2</v>
@@ -38839,7 +38785,7 @@
         <v>56</v>
       </c>
       <c r="L52" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="M52">
         <v>5.008912564871331E-2</v>
@@ -38883,7 +38829,7 @@
         <v>56</v>
       </c>
       <c r="L53" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="M53">
         <v>5.830356212082257E-2</v>
@@ -38927,7 +38873,7 @@
         <v>34</v>
       </c>
       <c r="L54" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="M54">
         <v>3.848998337559708E-2</v>
@@ -38971,7 +38917,7 @@
         <v>34</v>
       </c>
       <c r="L55" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="M55">
         <v>3.7586318983874475E-2</v>
@@ -39015,7 +38961,7 @@
         <v>60</v>
       </c>
       <c r="L56" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="M56">
         <v>4.6813598676434483E-2</v>
@@ -39059,7 +39005,7 @@
         <v>60</v>
       </c>
       <c r="L57" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="M57">
         <v>5.9950274362933216E-2</v>
@@ -39103,7 +39049,7 @@
         <v>40</v>
       </c>
       <c r="L58" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="M58">
         <v>5.8189288278660045E-2</v>
@@ -39147,7 +39093,7 @@
         <v>40</v>
       </c>
       <c r="L59" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="M59">
         <v>5.427615192649405E-2</v>
@@ -39191,7 +39137,7 @@
         <v>58</v>
       </c>
       <c r="L60" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="M60">
         <v>4.2202311282246004E-2</v>
@@ -39235,7 +39181,7 @@
         <v>58</v>
       </c>
       <c r="L61" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="M61">
         <v>3.5851898318711939E-2</v>

--- a/Excel/LSWI_zones_hum_buf.xlsx
+++ b/Excel/LSWI_zones_hum_buf.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="LSWI_years" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6207" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6147" uniqueCount="88">
   <si>
     <t>wetland</t>
   </si>
@@ -5709,9 +5709,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P691"/>
+  <dimension ref="A1:N691"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A644" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O665" sqref="O1:P1048576"/>
     </sheetView>
   </sheetViews>
@@ -5726,7 +5726,7 @@
     <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5813,14 +5813,8 @@
       <c r="N2" t="s">
         <v>44</v>
       </c>
-      <c r="O2">
-        <v>6.0054066546440077E-2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5863,14 +5857,8 @@
       <c r="N3" t="s">
         <v>44</v>
       </c>
-      <c r="O3">
-        <v>9.285486995137128E-2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -5914,7 +5902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5958,7 +5946,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6002,7 +5990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6046,7 +6034,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -6090,7 +6078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6134,7 +6122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6178,7 +6166,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -6222,7 +6210,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -6266,7 +6254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -6310,7 +6298,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -6354,7 +6342,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -6398,7 +6386,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -6442,7 +6430,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -6486,7 +6474,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -6530,7 +6518,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -6574,7 +6562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -6618,7 +6606,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -6662,7 +6650,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -6706,7 +6694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -6750,7 +6738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -6794,7 +6782,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -6837,14 +6825,8 @@
       <c r="N25" t="s">
         <v>42</v>
       </c>
-      <c r="O25">
-        <v>5.2265440236712694E-2</v>
-      </c>
-      <c r="P25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -6887,14 +6869,8 @@
       <c r="N26" t="s">
         <v>42</v>
       </c>
-      <c r="O26">
-        <v>8.3600375943531993E-2</v>
-      </c>
-      <c r="P26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -6938,7 +6914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -6982,7 +6958,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -7026,7 +7002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -7070,7 +7046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -7114,7 +7090,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -7158,7 +7134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -7202,7 +7178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -7246,7 +7222,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -7290,7 +7266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -7334,7 +7310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -7378,7 +7354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -7422,7 +7398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -7466,7 +7442,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -7510,7 +7486,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -7554,7 +7530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -7598,7 +7574,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -7642,7 +7618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -7686,7 +7662,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -7730,7 +7706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -7774,7 +7750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -7818,7 +7794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -7861,14 +7837,8 @@
       <c r="N48" t="s">
         <v>50</v>
       </c>
-      <c r="O48">
-        <v>6.6026474887000516E-2</v>
-      </c>
-      <c r="P48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -7911,14 +7881,8 @@
       <c r="N49" t="s">
         <v>50</v>
       </c>
-      <c r="O49">
-        <v>-9.5586982748837365E-3</v>
-      </c>
-      <c r="P49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -7962,7 +7926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -8006,7 +7970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -8050,7 +8014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -8094,7 +8058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -8138,7 +8102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -8182,7 +8146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -8226,7 +8190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -8270,7 +8234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -8314,7 +8278,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -8358,7 +8322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -8402,7 +8366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -8446,7 +8410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -8490,7 +8454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -8534,7 +8498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -8578,7 +8542,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -8622,7 +8586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -8666,7 +8630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -8710,7 +8674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -8754,7 +8718,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -8798,7 +8762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -8842,7 +8806,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -8885,14 +8849,8 @@
       <c r="N71" t="s">
         <v>54</v>
       </c>
-      <c r="O71">
-        <v>4.9150863194748345E-2</v>
-      </c>
-      <c r="P71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -8935,14 +8893,8 @@
       <c r="N72" t="s">
         <v>54</v>
       </c>
-      <c r="O72">
-        <v>6.9642314837526836E-2</v>
-      </c>
-      <c r="P72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -8986,7 +8938,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -9030,7 +8982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -9074,7 +9026,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -9118,7 +9070,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -9162,7 +9114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -9206,7 +9158,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -9250,7 +9202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -9294,7 +9246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -9338,7 +9290,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -9382,7 +9334,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -9426,7 +9378,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -9470,7 +9422,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -9514,7 +9466,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -9558,7 +9510,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -9602,7 +9554,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -9646,7 +9598,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -9690,7 +9642,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -9734,7 +9686,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -9778,7 +9730,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -9822,7 +9774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -9866,7 +9818,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -9909,14 +9861,8 @@
       <c r="N94" t="s">
         <v>62</v>
       </c>
-      <c r="O94">
-        <v>7.3903410264117342E-2</v>
-      </c>
-      <c r="P94" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -9959,14 +9905,8 @@
       <c r="N95" t="s">
         <v>62</v>
       </c>
-      <c r="O95">
-        <v>3.1126983130033814E-2</v>
-      </c>
-      <c r="P95" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -10714,7 +10654,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -10758,7 +10698,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -10802,7 +10742,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -10846,7 +10786,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -10890,7 +10830,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -10933,14 +10873,8 @@
       <c r="N117" t="s">
         <v>46</v>
       </c>
-      <c r="O117">
-        <v>8.9678727092052171E-2</v>
-      </c>
-      <c r="P117" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -10983,14 +10917,8 @@
       <c r="N118" t="s">
         <v>46</v>
       </c>
-      <c r="O118">
-        <v>8.1082019645145054E-3</v>
-      </c>
-      <c r="P118" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -11034,7 +10962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -11078,7 +11006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -11122,7 +11050,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -11166,7 +11094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -11210,7 +11138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -11254,7 +11182,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -11298,7 +11226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -11342,7 +11270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -11386,7 +11314,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -11430,7 +11358,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -11474,7 +11402,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -11518,7 +11446,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -11562,7 +11490,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -11606,7 +11534,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -11650,7 +11578,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -11694,7 +11622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -11738,7 +11666,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -11782,7 +11710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -11826,7 +11754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -11870,7 +11798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -11914,7 +11842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -11957,14 +11885,8 @@
       <c r="N140" t="s">
         <v>52</v>
       </c>
-      <c r="O140">
-        <v>7.4017286358345202E-2</v>
-      </c>
-      <c r="P140" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -12007,14 +11929,8 @@
       <c r="N141" t="s">
         <v>52</v>
       </c>
-      <c r="O141">
-        <v>2.769231736851149E-2</v>
-      </c>
-      <c r="P141" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -12058,7 +11974,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -12102,7 +12018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -12850,7 +12766,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -12894,7 +12810,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -12938,7 +12854,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -12981,14 +12897,8 @@
       <c r="N163" t="s">
         <v>38</v>
       </c>
-      <c r="O163">
-        <v>6.041382795189567E-2</v>
-      </c>
-      <c r="P163" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>15</v>
       </c>
@@ -13031,14 +12941,8 @@
       <c r="N164" t="s">
         <v>38</v>
       </c>
-      <c r="O164">
-        <v>2.7099704482693155E-2</v>
-      </c>
-      <c r="P164" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -13082,7 +12986,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -13126,7 +13030,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>15</v>
       </c>
@@ -13170,7 +13074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>15</v>
       </c>
@@ -13214,7 +13118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>15</v>
       </c>
@@ -13258,7 +13162,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>15</v>
       </c>
@@ -13302,7 +13206,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>15</v>
       </c>
@@ -13346,7 +13250,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>15</v>
       </c>
@@ -13390,7 +13294,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -13434,7 +13338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>15</v>
       </c>
@@ -13478,7 +13382,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>15</v>
       </c>
@@ -13522,7 +13426,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>15</v>
       </c>
@@ -13566,7 +13470,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>15</v>
       </c>
@@ -13610,7 +13514,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>15</v>
       </c>
@@ -13654,7 +13558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>15</v>
       </c>
@@ -13698,7 +13602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -13742,7 +13646,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -13786,7 +13690,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -13830,7 +13734,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>15</v>
       </c>
@@ -13874,7 +13778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>15</v>
       </c>
@@ -13918,7 +13822,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>15</v>
       </c>
@@ -13962,7 +13866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -14005,14 +13909,8 @@
       <c r="N186" t="s">
         <v>36</v>
       </c>
-      <c r="O186">
-        <v>5.4633647110990884E-2</v>
-      </c>
-      <c r="P186" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>16</v>
       </c>
@@ -14055,14 +13953,8 @@
       <c r="N187" t="s">
         <v>36</v>
       </c>
-      <c r="O187">
-        <v>7.9770028243829477E-3</v>
-      </c>
-      <c r="P187" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -14106,7 +13998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>16</v>
       </c>
@@ -14150,7 +14042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>16</v>
       </c>
@@ -14194,7 +14086,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>16</v>
       </c>
@@ -14238,7 +14130,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>16</v>
       </c>
@@ -14986,7 +14878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -15029,14 +14921,8 @@
       <c r="N209" t="s">
         <v>48</v>
       </c>
-      <c r="O209">
-        <v>2.1362756453411805E-2</v>
-      </c>
-      <c r="P209" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>17</v>
       </c>
@@ -15079,14 +14965,8 @@
       <c r="N210" t="s">
         <v>48</v>
       </c>
-      <c r="O210">
-        <v>2.5051966761243848E-2</v>
-      </c>
-      <c r="P210" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -15130,7 +15010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -15174,7 +15054,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -15218,7 +15098,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>17</v>
       </c>
@@ -15262,7 +15142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>17</v>
       </c>
@@ -15306,7 +15186,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>17</v>
       </c>
@@ -15350,7 +15230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -15394,7 +15274,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -15438,7 +15318,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -15482,7 +15362,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -15526,7 +15406,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -15570,7 +15450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -15614,7 +15494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -15658,7 +15538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -15702,7 +15582,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -15746,7 +15626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -15790,7 +15670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -15834,7 +15714,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -15878,7 +15758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -15922,7 +15802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -15966,7 +15846,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>17</v>
       </c>
@@ -16010,7 +15890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>18</v>
       </c>
@@ -16053,14 +15933,8 @@
       <c r="N232" t="s">
         <v>56</v>
       </c>
-      <c r="O232">
-        <v>8.8120879998419735E-2</v>
-      </c>
-      <c r="P232" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>18</v>
       </c>
@@ -16103,14 +15977,8 @@
       <c r="N233" t="s">
         <v>56</v>
       </c>
-      <c r="O233">
-        <v>1.6207627629022853E-2</v>
-      </c>
-      <c r="P233" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -16154,7 +16022,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>18</v>
       </c>
@@ -16198,7 +16066,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>18</v>
       </c>
@@ -16242,7 +16110,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>18</v>
       </c>
@@ -16286,7 +16154,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>18</v>
       </c>
@@ -16330,7 +16198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>18</v>
       </c>
@@ -16374,7 +16242,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>18</v>
       </c>
@@ -16418,7 +16286,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>18</v>
       </c>
@@ -16462,7 +16330,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>18</v>
       </c>
@@ -16506,7 +16374,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>18</v>
       </c>
@@ -16550,7 +16418,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>18</v>
       </c>
@@ -16594,7 +16462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>18</v>
       </c>
@@ -16638,7 +16506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>18</v>
       </c>
@@ -16682,7 +16550,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>18</v>
       </c>
@@ -16726,7 +16594,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>18</v>
       </c>
@@ -16770,7 +16638,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>18</v>
       </c>
@@ -16814,7 +16682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>18</v>
       </c>
@@ -16858,7 +16726,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>18</v>
       </c>
@@ -16902,7 +16770,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>18</v>
       </c>
@@ -16946,7 +16814,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>18</v>
       </c>
@@ -16990,7 +16858,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>18</v>
       </c>
@@ -17034,7 +16902,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>19</v>
       </c>
@@ -17077,14 +16945,8 @@
       <c r="N255" t="s">
         <v>34</v>
       </c>
-      <c r="O255">
-        <v>7.319808933363349E-2</v>
-      </c>
-      <c r="P255" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>19</v>
       </c>
@@ -17126,12 +16988,6 @@
       </c>
       <c r="N256" t="s">
         <v>34</v>
-      </c>
-      <c r="O256">
-        <v>-4.8932573492571517E-3</v>
-      </c>
-      <c r="P256" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
@@ -17838,7 +17694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -17882,7 +17738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>19</v>
       </c>
@@ -17926,7 +17782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>19</v>
       </c>
@@ -17970,7 +17826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>19</v>
       </c>
@@ -18014,7 +17870,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>19</v>
       </c>
@@ -18058,7 +17914,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>20</v>
       </c>
@@ -18101,14 +17957,8 @@
       <c r="N278" t="s">
         <v>60</v>
       </c>
-      <c r="O278">
-        <v>8.5459041384543702E-2</v>
-      </c>
-      <c r="P278" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>20</v>
       </c>
@@ -18151,14 +18001,8 @@
       <c r="N279" t="s">
         <v>60</v>
       </c>
-      <c r="O279">
-        <v>4.5052253859944906E-3</v>
-      </c>
-      <c r="P279" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>20</v>
       </c>
@@ -18202,7 +18046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>20</v>
       </c>
@@ -18246,7 +18090,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>20</v>
       </c>
@@ -18290,7 +18134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>20</v>
       </c>
@@ -18334,7 +18178,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>20</v>
       </c>
@@ -18378,7 +18222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>20</v>
       </c>
@@ -18422,7 +18266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>20</v>
       </c>
@@ -18466,7 +18310,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>20</v>
       </c>
@@ -18510,7 +18354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>20</v>
       </c>
@@ -18554,7 +18398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>20</v>
       </c>
@@ -18598,7 +18442,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>20</v>
       </c>
@@ -18642,7 +18486,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>20</v>
       </c>
@@ -18686,7 +18530,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>20</v>
       </c>
@@ -18730,7 +18574,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -18774,7 +18618,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>20</v>
       </c>
@@ -18818,7 +18662,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>20</v>
       </c>
@@ -18862,7 +18706,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>20</v>
       </c>
@@ -18906,7 +18750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>20</v>
       </c>
@@ -18950,7 +18794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>20</v>
       </c>
@@ -18994,7 +18838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>20</v>
       </c>
@@ -19038,7 +18882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>20</v>
       </c>
@@ -19082,7 +18926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>21</v>
       </c>
@@ -19125,14 +18969,8 @@
       <c r="N301" t="s">
         <v>40</v>
       </c>
-      <c r="O301">
-        <v>5.0415633166666668E-2</v>
-      </c>
-      <c r="P301" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>21</v>
       </c>
@@ -19175,14 +19013,8 @@
       <c r="N302" t="s">
         <v>40</v>
       </c>
-      <c r="O302">
-        <v>3.9958162511490114E-3</v>
-      </c>
-      <c r="P302" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>21</v>
       </c>
@@ -19226,7 +19058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>21</v>
       </c>
@@ -19974,7 +19806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>21</v>
       </c>
@@ -20018,7 +19850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>21</v>
       </c>
@@ -20062,7 +19894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>21</v>
       </c>
@@ -20106,7 +19938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>22</v>
       </c>
@@ -20149,14 +19981,8 @@
       <c r="N324" t="s">
         <v>58</v>
       </c>
-      <c r="O324">
-        <v>4.6620529539125766E-2</v>
-      </c>
-      <c r="P324" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>22</v>
       </c>
@@ -20199,14 +20025,8 @@
       <c r="N325" t="s">
         <v>58</v>
       </c>
-      <c r="O325">
-        <v>5.727322563454116E-2</v>
-      </c>
-      <c r="P325" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>22</v>
       </c>
@@ -20250,7 +20070,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>22</v>
       </c>
@@ -20294,7 +20114,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>22</v>
       </c>
@@ -20338,7 +20158,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>22</v>
       </c>
@@ -20382,7 +20202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>22</v>
       </c>
@@ -20426,7 +20246,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>22</v>
       </c>
@@ -20470,7 +20290,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>22</v>
       </c>
@@ -20514,7 +20334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>22</v>
       </c>
@@ -20558,7 +20378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>22</v>
       </c>
@@ -20602,7 +20422,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>22</v>
       </c>
@@ -20646,7 +20466,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>22</v>
       </c>
@@ -20690,7 +20510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>22</v>
       </c>
@@ -20734,7 +20554,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>22</v>
       </c>
@@ -20778,7 +20598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>22</v>
       </c>
@@ -20822,7 +20642,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>22</v>
       </c>
@@ -20866,7 +20686,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>22</v>
       </c>
@@ -20910,7 +20730,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>22</v>
       </c>
@@ -20954,7 +20774,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>22</v>
       </c>
@@ -20998,7 +20818,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>22</v>
       </c>
@@ -21042,7 +20862,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>22</v>
       </c>
@@ -21086,7 +20906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>22</v>
       </c>
@@ -21130,7 +20950,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>8</v>
       </c>
@@ -21173,14 +20993,8 @@
       <c r="N347" t="s">
         <v>44</v>
       </c>
-      <c r="O347">
-        <v>8.5538430130318477E-2</v>
-      </c>
-      <c r="P347" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>8</v>
       </c>
@@ -21223,14 +21037,8 @@
       <c r="N348" t="s">
         <v>44</v>
       </c>
-      <c r="O348">
-        <v>9.4676978535346304E-2</v>
-      </c>
-      <c r="P348" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>8</v>
       </c>
@@ -21274,7 +21082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>8</v>
       </c>
@@ -21318,7 +21126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>8</v>
       </c>
@@ -21362,7 +21170,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>8</v>
       </c>
@@ -22110,7 +21918,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>8</v>
       </c>
@@ -22154,7 +21962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>9</v>
       </c>
@@ -22197,14 +22005,8 @@
       <c r="N370" t="s">
         <v>42</v>
       </c>
-      <c r="O370">
-        <v>-7.6338789206392083E-3</v>
-      </c>
-      <c r="P370" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>9</v>
       </c>
@@ -22247,14 +22049,8 @@
       <c r="N371" t="s">
         <v>42</v>
       </c>
-      <c r="O371">
-        <v>4.141994670177946E-2</v>
-      </c>
-      <c r="P371" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>9</v>
       </c>
@@ -22298,7 +22094,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>9</v>
       </c>
@@ -22342,7 +22138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>9</v>
       </c>
@@ -22386,7 +22182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>9</v>
       </c>
@@ -22430,7 +22226,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>9</v>
       </c>
@@ -22474,7 +22270,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>9</v>
       </c>
@@ -22518,7 +22314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>9</v>
       </c>
@@ -22562,7 +22358,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>9</v>
       </c>
@@ -22606,7 +22402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>9</v>
       </c>
@@ -22650,7 +22446,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -22694,7 +22490,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>9</v>
       </c>
@@ -22738,7 +22534,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -22782,7 +22578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>9</v>
       </c>
@@ -22826,7 +22622,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>9</v>
       </c>
@@ -22870,7 +22666,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>9</v>
       </c>
@@ -22914,7 +22710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>9</v>
       </c>
@@ -22958,7 +22754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>9</v>
       </c>
@@ -23002,7 +22798,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>9</v>
       </c>
@@ -23046,7 +22842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>9</v>
       </c>
@@ -23090,7 +22886,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>9</v>
       </c>
@@ -23134,7 +22930,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>9</v>
       </c>
@@ -23178,7 +22974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>10</v>
       </c>
@@ -23221,14 +23017,8 @@
       <c r="N393" t="s">
         <v>50</v>
       </c>
-      <c r="O393">
-        <v>8.373203209322623E-2</v>
-      </c>
-      <c r="P393" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>10</v>
       </c>
@@ -23271,14 +23061,8 @@
       <c r="N394" t="s">
         <v>50</v>
       </c>
-      <c r="O394">
-        <v>-1.7166748266250157E-4</v>
-      </c>
-      <c r="P394" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>10</v>
       </c>
@@ -23322,7 +23106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>10</v>
       </c>
@@ -23366,7 +23150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>10</v>
       </c>
@@ -23410,7 +23194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>10</v>
       </c>
@@ -23454,7 +23238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>10</v>
       </c>
@@ -23498,7 +23282,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>10</v>
       </c>
@@ -23542,7 +23326,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>10</v>
       </c>
@@ -23586,7 +23370,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>10</v>
       </c>
@@ -23630,7 +23414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>10</v>
       </c>
@@ -23674,7 +23458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>10</v>
       </c>
@@ -23718,7 +23502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>10</v>
       </c>
@@ -23762,7 +23546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>10</v>
       </c>
@@ -23806,7 +23590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>10</v>
       </c>
@@ -23850,7 +23634,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>10</v>
       </c>
@@ -23894,7 +23678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>10</v>
       </c>
@@ -23938,7 +23722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>10</v>
       </c>
@@ -23982,7 +23766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>10</v>
       </c>
@@ -24026,7 +23810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>10</v>
       </c>
@@ -24070,7 +23854,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>10</v>
       </c>
@@ -24114,7 +23898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>10</v>
       </c>
@@ -24158,7 +23942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>10</v>
       </c>
@@ -24202,7 +23986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>11</v>
       </c>
@@ -24245,14 +24029,8 @@
       <c r="N416" t="s">
         <v>54</v>
       </c>
-      <c r="O416">
-        <v>-1.88677759384594E-2</v>
-      </c>
-      <c r="P416" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>11</v>
       </c>
@@ -24295,14 +24073,8 @@
       <c r="N417" t="s">
         <v>54</v>
       </c>
-      <c r="O417">
-        <v>4.7710178476332167E-2</v>
-      </c>
-      <c r="P417" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>11</v>
       </c>
@@ -24346,7 +24118,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>11</v>
       </c>
@@ -24390,7 +24162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>11</v>
       </c>
@@ -24434,7 +24206,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>11</v>
       </c>
@@ -24478,7 +24250,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>11</v>
       </c>
@@ -24522,7 +24294,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>11</v>
       </c>
@@ -24566,7 +24338,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>11</v>
       </c>
@@ -24610,7 +24382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>11</v>
       </c>
@@ -24654,7 +24426,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>11</v>
       </c>
@@ -24698,7 +24470,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>11</v>
       </c>
@@ -24742,7 +24514,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>11</v>
       </c>
@@ -24786,7 +24558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>11</v>
       </c>
@@ -24830,7 +24602,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>11</v>
       </c>
@@ -24874,7 +24646,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>11</v>
       </c>
@@ -24918,7 +24690,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>11</v>
       </c>
@@ -24962,7 +24734,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>11</v>
       </c>
@@ -25006,7 +24778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>11</v>
       </c>
@@ -25050,7 +24822,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>11</v>
       </c>
@@ -25094,7 +24866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>11</v>
       </c>
@@ -25138,7 +24910,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>11</v>
       </c>
@@ -25182,7 +24954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>11</v>
       </c>
@@ -25226,7 +24998,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>12</v>
       </c>
@@ -25269,14 +25041,8 @@
       <c r="N439" t="s">
         <v>62</v>
       </c>
-      <c r="O439">
-        <v>7.7103368914483092E-2</v>
-      </c>
-      <c r="P439" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>12</v>
       </c>
@@ -25319,14 +25085,8 @@
       <c r="N440" t="s">
         <v>62</v>
       </c>
-      <c r="O440">
-        <v>6.7301898106033195E-2</v>
-      </c>
-      <c r="P440" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>12</v>
       </c>
@@ -25370,7 +25130,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>12</v>
       </c>
@@ -25414,7 +25174,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>12</v>
       </c>
@@ -25458,7 +25218,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>12</v>
       </c>
@@ -25502,7 +25262,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>12</v>
       </c>
@@ -25546,7 +25306,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>12</v>
       </c>
@@ -25590,7 +25350,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>12</v>
       </c>
@@ -25634,7 +25394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>12</v>
       </c>
@@ -25678,7 +25438,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>12</v>
       </c>
@@ -25722,7 +25482,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>12</v>
       </c>
@@ -25766,7 +25526,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>12</v>
       </c>
@@ -25810,7 +25570,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>12</v>
       </c>
@@ -25854,7 +25614,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>12</v>
       </c>
@@ -25898,7 +25658,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>12</v>
       </c>
@@ -25942,7 +25702,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>12</v>
       </c>
@@ -25986,7 +25746,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>12</v>
       </c>
@@ -26030,7 +25790,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>12</v>
       </c>
@@ -26074,7 +25834,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>12</v>
       </c>
@@ -26118,7 +25878,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>12</v>
       </c>
@@ -26162,7 +25922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>12</v>
       </c>
@@ -26206,7 +25966,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>12</v>
       </c>
@@ -26250,7 +26010,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>13</v>
       </c>
@@ -26293,14 +26053,8 @@
       <c r="N462" t="s">
         <v>46</v>
       </c>
-      <c r="O462">
-        <v>3.022692684653161E-3</v>
-      </c>
-      <c r="P462" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>13</v>
       </c>
@@ -26343,14 +26097,8 @@
       <c r="N463" t="s">
         <v>46</v>
       </c>
-      <c r="O463">
-        <v>3.6829164110967413E-2</v>
-      </c>
-      <c r="P463" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>13</v>
       </c>
@@ -27098,7 +26846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>13</v>
       </c>
@@ -27142,7 +26890,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>13</v>
       </c>
@@ -27186,7 +26934,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>13</v>
       </c>
@@ -27230,7 +26978,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>13</v>
       </c>
@@ -27274,7 +27022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>14</v>
       </c>
@@ -27317,14 +27065,8 @@
       <c r="N485" t="s">
         <v>52</v>
       </c>
-      <c r="O485">
-        <v>0.10874245889029842</v>
-      </c>
-      <c r="P485" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>14</v>
       </c>
@@ -27367,14 +27109,8 @@
       <c r="N486" t="s">
         <v>52</v>
       </c>
-      <c r="O486">
-        <v>3.5376219552520544E-2</v>
-      </c>
-      <c r="P486" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>14</v>
       </c>
@@ -27418,7 +27154,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>14</v>
       </c>
@@ -27462,7 +27198,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>14</v>
       </c>
@@ -27506,7 +27242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>14</v>
       </c>
@@ -27550,7 +27286,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>14</v>
       </c>
@@ -27594,7 +27330,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>14</v>
       </c>
@@ -27638,7 +27374,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>14</v>
       </c>
@@ -27682,7 +27418,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>14</v>
       </c>
@@ -27726,7 +27462,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>14</v>
       </c>
@@ -27770,7 +27506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>14</v>
       </c>
@@ -27814,7 +27550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>14</v>
       </c>
@@ -27858,7 +27594,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>14</v>
       </c>
@@ -27902,7 +27638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>14</v>
       </c>
@@ -27946,7 +27682,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>14</v>
       </c>
@@ -27990,7 +27726,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>14</v>
       </c>
@@ -28034,7 +27770,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>14</v>
       </c>
@@ -28078,7 +27814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>14</v>
       </c>
@@ -28122,7 +27858,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>14</v>
       </c>
@@ -28166,7 +27902,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>14</v>
       </c>
@@ -28210,7 +27946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>14</v>
       </c>
@@ -28254,7 +27990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>14</v>
       </c>
@@ -28298,7 +28034,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>15</v>
       </c>
@@ -28341,14 +28077,8 @@
       <c r="N508" t="s">
         <v>38</v>
       </c>
-      <c r="O508">
-        <v>9.3903812548266144E-2</v>
-      </c>
-      <c r="P508" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>15</v>
       </c>
@@ -28391,14 +28121,8 @@
       <c r="N509" t="s">
         <v>38</v>
       </c>
-      <c r="O509">
-        <v>3.5757958146344242E-2</v>
-      </c>
-      <c r="P509" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>15</v>
       </c>
@@ -28442,7 +28166,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="511" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>15</v>
       </c>
@@ -28486,7 +28210,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>15</v>
       </c>
@@ -29234,7 +28958,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>15</v>
       </c>
@@ -29278,7 +29002,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>15</v>
       </c>
@@ -29322,7 +29046,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>16</v>
       </c>
@@ -29365,14 +29089,8 @@
       <c r="N531" t="s">
         <v>36</v>
       </c>
-      <c r="O531">
-        <v>9.3467374799490521E-2</v>
-      </c>
-      <c r="P531" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>16</v>
       </c>
@@ -29415,14 +29133,8 @@
       <c r="N532" t="s">
         <v>36</v>
       </c>
-      <c r="O532">
-        <v>7.5054230434128275E-2</v>
-      </c>
-      <c r="P532" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>16</v>
       </c>
@@ -29466,7 +29178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>16</v>
       </c>
@@ -29510,7 +29222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>16</v>
       </c>
@@ -29554,7 +29266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>16</v>
       </c>
@@ -29598,7 +29310,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>16</v>
       </c>
@@ -29642,7 +29354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>16</v>
       </c>
@@ -29686,7 +29398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>16</v>
       </c>
@@ -29730,7 +29442,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>16</v>
       </c>
@@ -29774,7 +29486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>16</v>
       </c>
@@ -29818,7 +29530,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>16</v>
       </c>
@@ -29862,7 +29574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>16</v>
       </c>
@@ -29906,7 +29618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>16</v>
       </c>
@@ -29950,7 +29662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="545" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>16</v>
       </c>
@@ -29994,7 +29706,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="546" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>16</v>
       </c>
@@ -30038,7 +29750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="547" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>16</v>
       </c>
@@ -30082,7 +29794,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="548" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>16</v>
       </c>
@@ -30126,7 +29838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="549" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>16</v>
       </c>
@@ -30170,7 +29882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="550" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>16</v>
       </c>
@@ -30214,7 +29926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="551" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>16</v>
       </c>
@@ -30258,7 +29970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="552" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>16</v>
       </c>
@@ -30302,7 +30014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="553" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>16</v>
       </c>
@@ -30346,7 +30058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="554" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>17</v>
       </c>
@@ -30389,14 +30101,8 @@
       <c r="N554" t="s">
         <v>48</v>
       </c>
-      <c r="O554">
-        <v>8.8568597340455399E-2</v>
-      </c>
-      <c r="P554" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="555" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>17</v>
       </c>
@@ -30439,14 +30145,8 @@
       <c r="N555" t="s">
         <v>48</v>
       </c>
-      <c r="O555">
-        <v>6.0172699135778385E-2</v>
-      </c>
-      <c r="P555" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="556" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>17</v>
       </c>
@@ -30490,7 +30190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="557" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>17</v>
       </c>
@@ -30534,7 +30234,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="558" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>17</v>
       </c>
@@ -30578,7 +30278,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="559" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>17</v>
       </c>
@@ -30622,7 +30322,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="560" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>17</v>
       </c>
@@ -31370,7 +31070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="577" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>18</v>
       </c>
@@ -31413,14 +31113,8 @@
       <c r="N577" t="s">
         <v>56</v>
       </c>
-      <c r="O577">
-        <v>0.14899501551042449</v>
-      </c>
-      <c r="P577" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="578" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>18</v>
       </c>
@@ -31463,14 +31157,8 @@
       <c r="N578" t="s">
         <v>56</v>
       </c>
-      <c r="O578">
-        <v>5.830356212082257E-2</v>
-      </c>
-      <c r="P578" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="579" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>18</v>
       </c>
@@ -31514,7 +31202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="580" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>18</v>
       </c>
@@ -31558,7 +31246,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="581" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>18</v>
       </c>
@@ -31602,7 +31290,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="582" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>18</v>
       </c>
@@ -31646,7 +31334,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>18</v>
       </c>
@@ -31690,7 +31378,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>18</v>
       </c>
@@ -31734,7 +31422,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="585" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>18</v>
       </c>
@@ -31778,7 +31466,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>18</v>
       </c>
@@ -31822,7 +31510,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="587" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>18</v>
       </c>
@@ -31866,7 +31554,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="588" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>18</v>
       </c>
@@ -31910,7 +31598,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="589" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>18</v>
       </c>
@@ -31954,7 +31642,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="590" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>18</v>
       </c>
@@ -31998,7 +31686,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="591" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>18</v>
       </c>
@@ -32042,7 +31730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="592" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>18</v>
       </c>
@@ -32086,7 +31774,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="593" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>18</v>
       </c>
@@ -32130,7 +31818,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="594" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>18</v>
       </c>
@@ -32174,7 +31862,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="595" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>18</v>
       </c>
@@ -32218,7 +31906,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="596" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>18</v>
       </c>
@@ -32262,7 +31950,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="597" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>18</v>
       </c>
@@ -32306,7 +31994,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="598" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>18</v>
       </c>
@@ -32350,7 +32038,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="599" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>18</v>
       </c>
@@ -32394,7 +32082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="600" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>19</v>
       </c>
@@ -32437,14 +32125,8 @@
       <c r="N600" t="s">
         <v>34</v>
       </c>
-      <c r="O600">
-        <v>1.7387995067351416E-2</v>
-      </c>
-      <c r="P600" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="601" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>19</v>
       </c>
@@ -32487,14 +32169,8 @@
       <c r="N601" t="s">
         <v>34</v>
       </c>
-      <c r="O601">
-        <v>3.7586318983874475E-2</v>
-      </c>
-      <c r="P601" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="602" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>19</v>
       </c>
@@ -32538,7 +32214,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="603" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>19</v>
       </c>
@@ -32582,7 +32258,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="604" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>19</v>
       </c>
@@ -32626,7 +32302,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="605" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>19</v>
       </c>
@@ -32670,7 +32346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="606" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>19</v>
       </c>
@@ -32714,7 +32390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="607" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>19</v>
       </c>
@@ -32758,7 +32434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="608" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>19</v>
       </c>
@@ -32802,7 +32478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="609" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>19</v>
       </c>
@@ -32846,7 +32522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="610" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>19</v>
       </c>
@@ -32890,7 +32566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="611" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>19</v>
       </c>
@@ -32934,7 +32610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="612" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>19</v>
       </c>
@@ -32978,7 +32654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="613" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>19</v>
       </c>
@@ -33022,7 +32698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="614" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>19</v>
       </c>
@@ -33066,7 +32742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="615" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>19</v>
       </c>
@@ -33110,7 +32786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="616" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>19</v>
       </c>
@@ -33154,7 +32830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="617" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>19</v>
       </c>
@@ -33198,7 +32874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="618" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>19</v>
       </c>
@@ -33242,7 +32918,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="619" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>19</v>
       </c>
@@ -33286,7 +32962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="620" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>19</v>
       </c>
@@ -33330,7 +33006,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="621" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>19</v>
       </c>
@@ -33374,7 +33050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="622" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>19</v>
       </c>
@@ -33418,7 +33094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="623" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>20</v>
       </c>
@@ -33461,14 +33137,8 @@
       <c r="N623" t="s">
         <v>60</v>
       </c>
-      <c r="O623">
-        <v>0.11104443611201255</v>
-      </c>
-      <c r="P623" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="624" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>20</v>
       </c>
@@ -33510,12 +33180,6 @@
       </c>
       <c r="N624" t="s">
         <v>60</v>
-      </c>
-      <c r="O624">
-        <v>5.9950274362933216E-2</v>
-      </c>
-      <c r="P624" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="625" spans="1:14" x14ac:dyDescent="0.25">
@@ -34222,7 +33886,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="641" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>20</v>
       </c>
@@ -34266,7 +33930,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="642" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>20</v>
       </c>
@@ -34310,7 +33974,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="643" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>20</v>
       </c>
@@ -34354,7 +34018,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="644" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>20</v>
       </c>
@@ -34398,7 +34062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="645" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>20</v>
       </c>
@@ -34442,7 +34106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="646" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>21</v>
       </c>
@@ -34485,14 +34149,8 @@
       <c r="N646" t="s">
         <v>40</v>
       </c>
-      <c r="O646">
-        <v>3.1400685898626213E-2</v>
-      </c>
-      <c r="P646" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="647" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="647" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>21</v>
       </c>
@@ -34535,14 +34193,8 @@
       <c r="N647" t="s">
         <v>40</v>
       </c>
-      <c r="O647">
-        <v>5.427615192649405E-2</v>
-      </c>
-      <c r="P647" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="648" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="648" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>21</v>
       </c>
@@ -34586,7 +34238,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="649" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>21</v>
       </c>
@@ -34630,7 +34282,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="650" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>21</v>
       </c>
@@ -34674,7 +34326,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="651" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>21</v>
       </c>
@@ -34718,7 +34370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="652" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>21</v>
       </c>
@@ -34762,7 +34414,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="653" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>21</v>
       </c>
@@ -34806,7 +34458,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="654" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>21</v>
       </c>
@@ -34850,7 +34502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="655" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>21</v>
       </c>
@@ -34894,7 +34546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="656" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>21</v>
       </c>
@@ -34938,7 +34590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="657" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>21</v>
       </c>
@@ -34982,7 +34634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="658" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>21</v>
       </c>
@@ -35026,7 +34678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="659" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>21</v>
       </c>
@@ -35070,7 +34722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="660" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>21</v>
       </c>
@@ -35114,7 +34766,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="661" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>21</v>
       </c>
@@ -35158,7 +34810,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="662" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>21</v>
       </c>
@@ -35202,7 +34854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="663" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>21</v>
       </c>
@@ -35246,7 +34898,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="664" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>21</v>
       </c>
@@ -35290,7 +34942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="665" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>21</v>
       </c>
@@ -35334,7 +34986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="666" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>21</v>
       </c>
@@ -35378,7 +35030,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="667" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>21</v>
       </c>
@@ -35422,7 +35074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="668" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>21</v>
       </c>
@@ -35466,7 +35118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="669" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>22</v>
       </c>
@@ -35509,14 +35161,8 @@
       <c r="N669" t="s">
         <v>58</v>
       </c>
-      <c r="O669">
-        <v>0.1070660153442905</v>
-      </c>
-      <c r="P669" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="670" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="670" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>22</v>
       </c>
@@ -35559,14 +35205,8 @@
       <c r="N670" t="s">
         <v>58</v>
       </c>
-      <c r="O670">
-        <v>3.5851898318711939E-2</v>
-      </c>
-      <c r="P670" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="671" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="671" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>22</v>
       </c>
@@ -35610,7 +35250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="672" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>22</v>
       </c>
@@ -36500,7 +36140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
